--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Basic process.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Basic process.xlsx
@@ -56,22 +56,124 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>Bacic process_Predictive model_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No Change (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_21</t>
+  </si>
+  <si>
+    <t>growth-inactivation</t>
+  </si>
+  <si>
+    <t>Bacic process_Predictive model_5</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_5</t>
+  </si>
+  <si>
+    <t>growth-inactivation-survival</t>
+  </si>
+  <si>
+    <t>Bacic process_Predictive model_8</t>
+  </si>
+  <si>
+    <t>Contamination</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_1</t>
+  </si>
+  <si>
+    <t>growth-no growth</t>
+  </si>
+  <si>
+    <t>Bacic process_Predictive model_9</t>
+  </si>
+  <si>
+    <t>Cross contamination</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_9</t>
+  </si>
+  <si>
+    <t>growth-survival</t>
+  </si>
+  <si>
+    <t>Bacic process_Predictive model_7</t>
+  </si>
+  <si>
+    <t>Decrease (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_11</t>
+  </si>
+  <si>
+    <t>inactivation</t>
+  </si>
+  <si>
+    <t>Bacic process_Predictive model_3</t>
+  </si>
+  <si>
+    <t>Decrease (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_27</t>
+  </si>
+  <si>
+    <t>inactivation-survival</t>
+  </si>
+  <si>
+    <t>Bacic process_Predictive model_6</t>
+  </si>
+  <si>
+    <t>Decrease by Inactivation model (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_28</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Bacic process_Predictive model_10</t>
+  </si>
+  <si>
+    <t>Evapuration-Dilution (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_15</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>Bacic process_Predictive model_4</t>
+  </si>
+  <si>
+    <t>Evapuration-Dilution (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_29</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>Bacic process_Predictive model_1</t>
   </si>
   <si>
-    <t>Contamination</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_1</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Bacic process_Predictive model_2</t>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_3</t>
   </si>
   <si>
     <t>Inactivation</t>
@@ -80,22 +182,40 @@
     <t>Basic process_Process model_2</t>
   </si>
   <si>
-    <t>inactivation</t>
-  </si>
-  <si>
-    <t>Bacic process_Predictive model_3</t>
-  </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_3</t>
-  </si>
-  <si>
-    <t>survival</t>
-  </si>
-  <si>
-    <t>Bacic process_Predictive model_4</t>
+    <t>Increase by Addition (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_10</t>
+  </si>
+  <si>
+    <t>Increase by Addition (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_24</t>
+  </si>
+  <si>
+    <t>Increase by Cross Contamination (Amount) (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_25</t>
+  </si>
+  <si>
+    <t>Increase by Cross Contamination (Concentration) (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_26</t>
+  </si>
+  <si>
+    <t>Increase by Growth (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_22</t>
+  </si>
+  <si>
+    <t>Increase by growth model (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_23</t>
   </si>
   <si>
     <t>Joining</t>
@@ -104,22 +224,10 @@
     <t>Basic process_Process model_4</t>
   </si>
   <si>
-    <t>growth-inactivation</t>
-  </si>
-  <si>
-    <t>Bacic process_Predictive model_5</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_5</t>
-  </si>
-  <si>
-    <t>inactivation-survival</t>
-  </si>
-  <si>
-    <t>Bacic process_Predictive model_6</t>
+    <t>Mass-change (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_12</t>
   </si>
   <si>
     <t>Mixing</t>
@@ -128,10 +236,13 @@
     <t>Basic process_Process model_6</t>
   </si>
   <si>
-    <t>growth-survival</t>
-  </si>
-  <si>
-    <t>Bacic process_Predictive model_7</t>
+    <t>No Change (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_18</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_37</t>
   </si>
   <si>
     <t>Partioning</t>
@@ -140,10 +251,64 @@
     <t>Basic process_Process model_7</t>
   </si>
   <si>
-    <t>growth-inactivation-survival</t>
-  </si>
-  <si>
-    <t>Bacic process_Predictive model_8</t>
+    <t>Partitioning (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_14</t>
+  </si>
+  <si>
+    <t>Partitioning (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_30</t>
+  </si>
+  <si>
+    <t>Placeholder (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_19</t>
+  </si>
+  <si>
+    <t>Placeholder (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_20</t>
+  </si>
+  <si>
+    <t>Pooling (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_13</t>
+  </si>
+  <si>
+    <t>Pooling (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_31</t>
+  </si>
+  <si>
+    <t>Redistribution (Partial) (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_16</t>
+  </si>
+  <si>
+    <t>Redistribution (Partial) (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_32</t>
+  </si>
+  <si>
+    <t>Redistribution (Total) (CHEMICAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_17</t>
+  </si>
+  <si>
+    <t>Redistribution (Total) (MICROBIAL)</t>
+  </si>
+  <si>
+    <t>Basic process_Process model_33</t>
   </si>
   <si>
     <t>Removal</t>
@@ -152,168 +317,6 @@
     <t>Basic process_Process model_8</t>
   </si>
   <si>
-    <t>growth-no growth</t>
-  </si>
-  <si>
-    <t>Bacic process_Predictive model_9</t>
-  </si>
-  <si>
-    <t>Cross contamination</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_9</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Bacic process_Predictive model_10</t>
-  </si>
-  <si>
-    <t>Increase by Addition (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_10</t>
-  </si>
-  <si>
-    <t>Decrease (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_11</t>
-  </si>
-  <si>
-    <t>Mass-change (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_12</t>
-  </si>
-  <si>
-    <t>Pooling (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_13</t>
-  </si>
-  <si>
-    <t>Partitioning (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_14</t>
-  </si>
-  <si>
-    <t>Evapuration-Dilution (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_15</t>
-  </si>
-  <si>
-    <t>Redistribution (Partial) (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_16</t>
-  </si>
-  <si>
-    <t>Redistribution (Total) (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_17</t>
-  </si>
-  <si>
-    <t>No Change (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_18</t>
-  </si>
-  <si>
-    <t>Placeholder (CHEMICAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_19</t>
-  </si>
-  <si>
-    <t>Placeholder (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No Change (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_21</t>
-  </si>
-  <si>
-    <t>Increase by Growth (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_22</t>
-  </si>
-  <si>
-    <t>Increase by growth model (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_23</t>
-  </si>
-  <si>
-    <t>Increase by Addition (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_24</t>
-  </si>
-  <si>
-    <t>Increase by Cross Contamination (Amount) (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_25</t>
-  </si>
-  <si>
-    <t>Increase by Cross Contamination (Concentration) (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_26</t>
-  </si>
-  <si>
-    <t>Decrease (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_27</t>
-  </si>
-  <si>
-    <t>Decrease by Inactivation model (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_28</t>
-  </si>
-  <si>
-    <t>Evapuration-Dilution (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_29</t>
-  </si>
-  <si>
-    <t>Partitioning (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_30</t>
-  </si>
-  <si>
-    <t>Pooling (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_31</t>
-  </si>
-  <si>
-    <t>Redistribution (Partial) (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_32</t>
-  </si>
-  <si>
-    <t>Redistribution (Total) (MICROBIAL)</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_33</t>
-  </si>
-  <si>
     <t>Sampling (OC curve) (MICROBIAL)</t>
   </si>
   <si>
@@ -330,9 +333,6 @@
   </si>
   <si>
     <t>Basic process_Process model_36</t>
-  </si>
-  <si>
-    <t>Basic process_Process model_37</t>
   </si>
 </sst>
 </file>
@@ -798,157 +798,157 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="M24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" t="s">
         <v>76</v>
-      </c>
-      <c r="N24" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="E25"/>
       <c r="F25"/>
       <c r="M25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" t="s">
         <v>78</v>
-      </c>
-      <c r="N25" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="E26"/>
       <c r="F26"/>
       <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" t="s">
         <v>80</v>
-      </c>
-      <c r="N26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="E27"/>
       <c r="F27"/>
       <c r="M27" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" t="s">
         <v>82</v>
-      </c>
-      <c r="N27" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="E28"/>
       <c r="F28"/>
       <c r="M28" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" t="s">
         <v>84</v>
-      </c>
-      <c r="N28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="E29"/>
       <c r="F29"/>
       <c r="M29" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" t="s">
         <v>86</v>
-      </c>
-      <c r="N29" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30">
       <c r="E30"/>
       <c r="F30"/>
       <c r="M30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" t="s">
         <v>88</v>
-      </c>
-      <c r="N30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="E31"/>
       <c r="F31"/>
       <c r="M31" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" t="s">
         <v>90</v>
-      </c>
-      <c r="N31" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="E32"/>
       <c r="F32"/>
       <c r="M32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" t="s">
         <v>92</v>
-      </c>
-      <c r="N32" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="E33"/>
       <c r="F33"/>
       <c r="M33" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" t="s">
         <v>94</v>
-      </c>
-      <c r="N33" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34">
       <c r="E34"/>
       <c r="F34"/>
       <c r="M34" t="s">
+        <v>95</v>
+      </c>
+      <c r="N34" t="s">
         <v>96</v>
-      </c>
-      <c r="N34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35">
       <c r="E35"/>
       <c r="F35"/>
       <c r="M35" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" t="s">
         <v>98</v>
-      </c>
-      <c r="N35" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="36">
       <c r="E36"/>
       <c r="F36"/>
       <c r="M36" t="s">
+        <v>99</v>
+      </c>
+      <c r="N36" t="s">
         <v>100</v>
-      </c>
-      <c r="N36" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37">
       <c r="E37"/>
       <c r="F37"/>
       <c r="M37" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" t="s">
         <v>102</v>
-      </c>
-      <c r="N37" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38">
       <c r="E38"/>
       <c r="F38"/>
       <c r="M38" t="s">
+        <v>103</v>
+      </c>
+      <c r="N38" t="s">
         <v>104</v>
-      </c>
-      <c r="N38" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39">
       <c r="E39"/>
       <c r="F39"/>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N39" t="s">
         <v>106</v>
